--- a/data/preregister/corrected_data.xlsx
+++ b/data/preregister/corrected_data.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="254">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -727,6 +735,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/chainsawriot/ots/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/utxs5/</t>
   </si>
   <si>
     <t xml:space="preserve">A Weakly Supervised and Deep Learning Method  for an Additive Topic Analysis of Large Corpora</t>
@@ -804,15 +815,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -824,7 +852,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -832,2476 +860,2061 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N43" activeCellId="0" sqref="N43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="L2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10" t="s">
+      <c r="L10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="L14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="L16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="L17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="L18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="L19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="L20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="L22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="L24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="L26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="L27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="L28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30"/>
-      <c r="N30" t="s">
+      <c r="L30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31"/>
-      <c r="N31" t="s">
+      <c r="L31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="I33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="L33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="I34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="L35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="P35"/>
-      <c r="Q35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="L36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="L37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="L38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="I39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="L39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="I40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="I41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="L41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="L42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+    </row>
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="I43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="L43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="O43" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="G44" t="n">
+      <c r="F44" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="I44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="L44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N44" t="s">
-        <v>234</v>
-      </c>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="N44" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="G45" t="n">
+      <c r="F45" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="L45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="N45" t="s">
-        <v>239</v>
-      </c>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="N45" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="G46" t="n">
+      <c r="F46" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="L46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C47" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="G47" t="n">
+      <c r="F47" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="L47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>248</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
+      <c r="F48" s="0" t="s">
+        <v>253</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <hyperlinks>
+    <hyperlink ref="N43" r:id="rId1" display="https://github.com/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>